--- a/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
+++ b/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">This method in the paper has meaning when GA method was used in some test functions. However the authors only compared improved GA method with traditional GA method when in the present there are many other methods to be used to test functions. The authors only used GA for one triangle classifier example to be inconsequential. There should be many more examples by used improved GA method.
 </t>
@@ -37,14 +40,6 @@
     <t>Review 1</t>
   </si>
   <si>
-    <t>The paper is poorly written, thus fails to show its contribution. More seriously,
-in section II-B, to introduce genetic algorithm, the paper copies exactly three
-paragraphs from the paper "Genetic Algorithms and the Automatic Generation of
-Test Data" (Roper et al., 1995) without any reference to the original work.
-As a result, I suggest to reject this paper as it contains some
-plagiarized content.</t>
-  </si>
-  <si>
     <t>At some points, "genetic algorithms" is written to "generic algorithms" (e.g.
 in "Keywords" section and in the title of section II-B).</t>
   </si>
@@ -54,11 +49,6 @@
   <si>
     <t>In section IV, the overall algorithm is not described to show the connection
 between its separate components.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In section III, related work are only listed in chronological order without
-comparison to the current work. Therefore, it is insufficient to show the
-differences between the proposed approach and its related approaches.</t>
   </si>
   <si>
     <t>Review 3</t>
@@ -87,6 +77,47 @@
 tM2004Triangle[22]
 tA2008Tritype[18, 22]
 QuadEq2</t>
+  </si>
+  <si>
+    <t>Việc đánh giá probability of a path covered nằm ngoài scope của paper này. Đưa ra chỉ để minh họa là path nào khó được coverage hơn path nào mà thôi</t>
+  </si>
+  <si>
+    <t>Đã sửa theo comment</t>
+  </si>
+  <si>
+    <t>Obtain all execution path cũng ko phải mục tiêu của paper này.
+Obtain all execution path là bài toán NP-hard nên tất cả các paper đều xem các program under test có số test path được xác định ngay từ đầu.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Vì GA được áp dụng từ những năm 2000 trong automatic test data generation cho nên việc chứng minh rằng GA có hiệu quả hơn các phương pháp provers là KO cần thiết trong paper này.
+Paper này tập trung vào việc cải tiến GA để làm cho nó tốt hơn so với traditional GA, và so sánh cải tiến này với 2 phương pháp cải tiến GA đã có(18, 24).</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The paper is poorly written, thus fails to show its contribution. More seriously,in section II-B, to introduce genetic algorithm, the paper copies exactly three paragraphs from the paper "Genetic Algorithms and the Automatic Generation of Test Data" (Roper et al., 1995) without any reference to the original work.
+As a result, I suggest to reject this paper as it contains some plagiarized content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã tìm và confirm lại với paper "Genetic Algorithms and the Automatic Generation of Test Data" (Roper et al., 1995) thì KO có chuyện "copies exactly three paragraphs".
+Hơn thế nữa, đây là phần II. BACKGROUND nên đương nhiên có thể có 1 vài câu trùng nhau vì cùng mô tả về GA.
+</t>
+  </si>
+  <si>
+    <t>In section III, related work are only listed in chronological order without
+comparison to the current work. Therefore, it is insufficient to show the
+differences between the proposed approach and its related approaches.</t>
+  </si>
+  <si>
+    <t>Trong các related work thì đều mô tả các approach đã làm với GA. Có thể thấy là các approach này chỉ cải thiện bằng cách thay đổi fitness function or xử lý song song đều ko áp dụng static program analysis.
+Ngoài ra với [18], [24]  có nêu kết quả cụ thể để so sánh với kết quả của paper này.</t>
   </si>
 </sst>
 </file>
@@ -102,12 +133,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,16 +180,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,137 +504,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
-  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
+++ b/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">This method in the paper has meaning when GA method was used in some test functions. However the authors only compared improved GA method with traditional GA method when in the present there are many other methods to be used to test functions. The authors only used GA for one triangle classifier example to be inconsequential. There should be many more examples by used improved GA method.
 </t>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,9 @@
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="6">

--- a/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
+++ b/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t xml:space="preserve">This method in the paper has meaning when GA method was used in some test functions. However the authors only compared improved GA method with traditional GA method when in the present there are many other methods to be used to test functions. The authors only used GA for one triangle classifier example to be inconsequential. There should be many more examples by used improved GA method.
 </t>
@@ -118,6 +118,12 @@
   <si>
     <t>Trong các related work thì đều mô tả các approach đã làm với GA. Có thể thấy là các approach này chỉ cải thiện bằng cách thay đổi fitness function or xử lý song song đều ko áp dụng static program analysis.
 Ngoài ra với [18], [24]  có nêu kết quả cụ thể để so sánh với kết quả của paper này.</t>
+  </si>
+  <si>
+    <t>Như đã nói ở No4, paper này KO nhằm mục tiêu so sánh với các non-GA approaches.</t>
+  </si>
+  <si>
+    <t>Đã sửa theo comment (thêm rất nhiều giải thích vào section V)</t>
   </si>
 </sst>
 </file>
@@ -191,9 +197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -202,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +513,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,19 +528,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -548,10 +554,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -562,10 +568,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,10 +580,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
@@ -586,10 +592,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -600,22 +606,22 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
@@ -624,80 +630,90 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
+++ b/CFT4CUnitSrc/src/report/ACOMP2016_Comment.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
